--- a/Jurisdiction List.xlsx
+++ b/Jurisdiction List.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\GitHub\UsefulSQLScripts\usefulsqlscripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1C411E-141C-4D22-B82C-38EE029E2BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42435FBA-FFCB-4F1B-9A65-F9992553C4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{791EB851-A240-4117-BBCC-C87086E7EBC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{791EB851-A240-4117-BBCC-C87086E7EBC8}"/>
   </bookViews>
   <sheets>
     <sheet name="aa - Template" sheetId="14" r:id="rId1"/>
-    <sheet name="NA - United States" sheetId="4" r:id="rId2"/>
-    <sheet name="NA - Canada" sheetId="6" r:id="rId3"/>
-    <sheet name="NA - Mexico" sheetId="7" r:id="rId4"/>
-    <sheet name="CA - Guatemala" sheetId="10" r:id="rId5"/>
-    <sheet name="CA - Honduras" sheetId="12" r:id="rId6"/>
-    <sheet name="CA - Nicaragua" sheetId="13" r:id="rId7"/>
-    <sheet name="CA - El Salvador" sheetId="8" r:id="rId8"/>
-    <sheet name="CA - Costa Rica" sheetId="15" r:id="rId9"/>
-    <sheet name="CA - Panama" sheetId="16" r:id="rId10"/>
-    <sheet name="CA - Belize" sheetId="17" r:id="rId11"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId12"/>
+    <sheet name="Country Codes" sheetId="18" r:id="rId2"/>
+    <sheet name="NA - United States" sheetId="4" r:id="rId3"/>
+    <sheet name="NA - Canada" sheetId="6" r:id="rId4"/>
+    <sheet name="NA - Mexico" sheetId="7" r:id="rId5"/>
+    <sheet name="CA - Guatemala" sheetId="10" r:id="rId6"/>
+    <sheet name="CA - Honduras" sheetId="12" r:id="rId7"/>
+    <sheet name="CA - Nicaragua" sheetId="13" r:id="rId8"/>
+    <sheet name="CA - El Salvador" sheetId="8" r:id="rId9"/>
+    <sheet name="CA - Costa Rica" sheetId="15" r:id="rId10"/>
+    <sheet name="CA - Panama" sheetId="16" r:id="rId11"/>
+    <sheet name="CA - Belize" sheetId="17" r:id="rId12"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="1029">
   <si>
     <t>AL</t>
   </si>
@@ -1175,13 +1176,1972 @@
   </si>
   <si>
     <t>South America (SA)</t>
+  </si>
+  <si>
+    <t>ISO Numeric</t>
+  </si>
+  <si>
+    <t>EU Member?</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Aland Islands</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>660</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>084</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>BQ</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Bonaire, Sint Eustatius and Saba</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Democratic Republic of Congo</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>096</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>854</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>GQ</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>FJ</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French South Territories</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>818</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>748</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>GY</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>HM</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guina-Bissau</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>Holy See</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>831</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>624</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>833</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>JM</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>JO</t>
+  </si>
+  <si>
+    <t>KZ</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>LY</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>North Macendonia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>832</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>442</t>
+  </si>
+  <si>
+    <t>446</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>MZ</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>584</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>484</t>
+  </si>
+  <si>
+    <t>583</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>492</t>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
+    <t>Saint Helena, Ascension Island and Tristan de Cunha</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>591</t>
+  </si>
+  <si>
+    <t>598</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>608</t>
+  </si>
+  <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>616</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>634</t>
+  </si>
+  <si>
+    <t>638</t>
+  </si>
+  <si>
+    <t>642</t>
+  </si>
+  <si>
+    <t>643</t>
+  </si>
+  <si>
+    <t>646</t>
+  </si>
+  <si>
+    <t>652</t>
+  </si>
+  <si>
+    <t>654</t>
+  </si>
+  <si>
+    <t>659</t>
+  </si>
+  <si>
+    <t>662</t>
+  </si>
+  <si>
+    <t>663</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>670</t>
+  </si>
+  <si>
+    <t>882</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>SX</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Georgia and South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>674</t>
+  </si>
+  <si>
+    <t>678</t>
+  </si>
+  <si>
+    <t>682</t>
+  </si>
+  <si>
+    <t>686</t>
+  </si>
+  <si>
+    <t>688</t>
+  </si>
+  <si>
+    <t>690</t>
+  </si>
+  <si>
+    <t>694</t>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
+    <t>710</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>724</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>729</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>744</t>
+  </si>
+  <si>
+    <t>752</t>
+  </si>
+  <si>
+    <t>756</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>762</t>
+  </si>
+  <si>
+    <t>834</t>
+  </si>
+  <si>
+    <t>764</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UM</t>
+  </si>
+  <si>
+    <t>UZ</t>
+  </si>
+  <si>
+    <t>VU</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>VG</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>WF</t>
+  </si>
+  <si>
+    <t>EH</t>
+  </si>
+  <si>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>ZW</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Tirinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Virgin Islands (US)</t>
+  </si>
+  <si>
+    <t>Virgin Islands (UK)</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>626</t>
+  </si>
+  <si>
+    <t>768</t>
+  </si>
+  <si>
+    <t>772</t>
+  </si>
+  <si>
+    <t>776</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>788</t>
+  </si>
+  <si>
+    <t>792</t>
+  </si>
+  <si>
+    <t>795</t>
+  </si>
+  <si>
+    <t>796</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>804</t>
+  </si>
+  <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
+    <t>581</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>858</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>862</t>
+  </si>
+  <si>
+    <t>704</t>
+  </si>
+  <si>
+    <t>092</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>876</t>
+  </si>
+  <si>
+    <t>732</t>
+  </si>
+  <si>
+    <t>887</t>
+  </si>
+  <si>
+    <t>894</t>
+  </si>
+  <si>
+    <t>716</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Country List</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_ISO_3166_country_codes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1193,6 +3153,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1221,18 +3189,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1589,6 +3569,183 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603CA29D-BFEC-42C7-BB3E-D6C60B69F954}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" t="str">
+        <f>"('"&amp;A5&amp;"', '"&amp;B5&amp;"', '"&amp;C5&amp;"', '"&amp;D5&amp;"')"</f>
+        <v>('A', 'Alajuela', 'CR', 'Costa Rica')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" t="str">
+        <f>", ('"&amp;A6&amp;"', '"&amp;B6&amp;"', '"&amp;C6&amp;"', '"&amp;D6&amp;"')"</f>
+        <v>, ('C', 'Cartago', 'CR', 'Costa Rica')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E11" si="0">", ('"&amp;A7&amp;"', '"&amp;B7&amp;"', '"&amp;C7&amp;"', '"&amp;D7&amp;"')"</f>
+        <v>, ('G', 'Guanacaste', 'CR', 'Costa Rica')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>, ('H', 'Heredia', 'CR', 'Costa Rica')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>, ('L', 'Limon', 'CR', 'Costa Rica')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>, ('P', 'Puntarenas', 'CR', 'Costa Rica')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>, ('SJ', 'San Jose', 'CR', 'Costa Rica')</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7689523-37B7-481D-A45C-F0D2E9E17EF9}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -1891,7 +4048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68E352B-6A87-459C-AFAC-0B71DC3AC4BC}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -1987,7 +4144,7 @@
         <v>201</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" ref="E7:E18" si="0">", ('"&amp;A7&amp;"', '"&amp;B7&amp;"', '"&amp;C7&amp;"', '"&amp;D7&amp;"')"</f>
+        <f t="shared" ref="E7:E10" si="0">", ('"&amp;A7&amp;"', '"&amp;B7&amp;"', '"&amp;C7&amp;"', '"&amp;D7&amp;"')"</f>
         <v>, ('CZL', 'Corozal', 'BZ', 'Belize')</v>
       </c>
     </row>
@@ -2074,11 +4231,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9952FFA7-DCFC-4068-9E07-63F348F1FB8C}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2221,6 +4378,2877 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D92DE2-797E-4AE0-9CC6-22AFF4FAA070}">
+  <dimension ref="A1:D253"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>382</v>
+      </c>
+      <c r="B11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B13" t="s">
+        <v>404</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>361</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>385</v>
+      </c>
+      <c r="B16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" t="s">
+        <v>407</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>387</v>
+      </c>
+      <c r="B18" t="s">
+        <v>408</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" t="s">
+        <v>409</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>410</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" t="s">
+        <v>411</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>388</v>
+      </c>
+      <c r="B22" t="s">
+        <v>412</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>389</v>
+      </c>
+      <c r="B23" t="s">
+        <v>413</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>390</v>
+      </c>
+      <c r="B24" t="s">
+        <v>414</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>391</v>
+      </c>
+      <c r="B25" t="s">
+        <v>415</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B26" t="s">
+        <v>416</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>349</v>
+      </c>
+      <c r="B27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>393</v>
+      </c>
+      <c r="B28" t="s">
+        <v>417</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>394</v>
+      </c>
+      <c r="B29" t="s">
+        <v>418</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>395</v>
+      </c>
+      <c r="B30" t="s">
+        <v>419</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>280</v>
+      </c>
+      <c r="B31" t="s">
+        <v>366</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>447</v>
+      </c>
+      <c r="B32" t="s">
+        <v>466</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>448</v>
+      </c>
+      <c r="B33" t="s">
+        <v>467</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>449</v>
+      </c>
+      <c r="B34" t="s">
+        <v>468</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" t="s">
+        <v>469</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>450</v>
+      </c>
+      <c r="B36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>451</v>
+      </c>
+      <c r="B37" t="s">
+        <v>470</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>452</v>
+      </c>
+      <c r="B38" t="s">
+        <v>471</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>453</v>
+      </c>
+      <c r="B39" t="s">
+        <v>472</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>454</v>
+      </c>
+      <c r="B40" t="s">
+        <v>473</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>455</v>
+      </c>
+      <c r="B41" t="s">
+        <v>474</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>456</v>
+      </c>
+      <c r="B42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>457</v>
+      </c>
+      <c r="B43" t="s">
+        <v>476</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" t="s">
+        <v>477</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" t="s">
+        <v>478</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>458</v>
+      </c>
+      <c r="B47" t="s">
+        <v>479</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>459</v>
+      </c>
+      <c r="B48" t="s">
+        <v>480</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" t="s">
+        <v>364</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>460</v>
+      </c>
+      <c r="B50" t="s">
+        <v>481</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>461</v>
+      </c>
+      <c r="B51" t="s">
+        <v>482</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>462</v>
+      </c>
+      <c r="B52" t="s">
+        <v>483</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>360</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>463</v>
+      </c>
+      <c r="B54" t="s">
+        <v>484</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>464</v>
+      </c>
+      <c r="B55" t="s">
+        <v>486</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>465</v>
+      </c>
+      <c r="B56" t="s">
+        <v>485</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>512</v>
+      </c>
+      <c r="B57" t="s">
+        <v>535</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>250</v>
+      </c>
+      <c r="B58" t="s">
+        <v>199</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>281</v>
+      </c>
+      <c r="B59" t="s">
+        <v>536</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>513</v>
+      </c>
+      <c r="B60" t="s">
+        <v>537</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>304</v>
+      </c>
+      <c r="B61" t="s">
+        <v>538</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>514</v>
+      </c>
+      <c r="B62" t="s">
+        <v>539</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>350</v>
+      </c>
+      <c r="B63" t="s">
+        <v>540</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>515</v>
+      </c>
+      <c r="B64" t="s">
+        <v>541</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>516</v>
+      </c>
+      <c r="B65" t="s">
+        <v>542</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>517</v>
+      </c>
+      <c r="B66" t="s">
+        <v>543</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>518</v>
+      </c>
+      <c r="B67" t="s">
+        <v>544</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>519</v>
+      </c>
+      <c r="B68" t="s">
+        <v>545</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>520</v>
+      </c>
+      <c r="B69" t="s">
+        <v>365</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>521</v>
+      </c>
+      <c r="B70" t="s">
+        <v>546</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>308</v>
+      </c>
+      <c r="B71" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>522</v>
+      </c>
+      <c r="B72" t="s">
+        <v>547</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>523</v>
+      </c>
+      <c r="B73" t="s">
+        <v>548</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>524</v>
+      </c>
+      <c r="B74" t="s">
+        <v>549</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>525</v>
+      </c>
+      <c r="B75" t="s">
+        <v>550</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>526</v>
+      </c>
+      <c r="B76" t="s">
+        <v>551</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>527</v>
+      </c>
+      <c r="B77" t="s">
+        <v>372</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>528</v>
+      </c>
+      <c r="B78" t="s">
+        <v>552</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>529</v>
+      </c>
+      <c r="B79" t="s">
+        <v>553</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>530</v>
+      </c>
+      <c r="B80" t="s">
+        <v>554</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>531</v>
+      </c>
+      <c r="B81" t="s">
+        <v>555</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>532</v>
+      </c>
+      <c r="B82" t="s">
+        <v>371</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>533</v>
+      </c>
+      <c r="B83" t="s">
+        <v>556</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>534</v>
+      </c>
+      <c r="B84" t="s">
+        <v>557</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>586</v>
+      </c>
+      <c r="B86" t="s">
+        <v>605</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>587</v>
+      </c>
+      <c r="B87" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>606</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>588</v>
+      </c>
+      <c r="B89" t="s">
+        <v>607</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>589</v>
+      </c>
+      <c r="B90" t="s">
+        <v>608</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" t="s">
+        <v>609</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>590</v>
+      </c>
+      <c r="B92" t="s">
+        <v>610</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>253</v>
+      </c>
+      <c r="B93" t="s">
+        <v>611</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>591</v>
+      </c>
+      <c r="B94" t="s">
+        <v>612</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" t="s">
+        <v>613</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>592</v>
+      </c>
+      <c r="B97" t="s">
+        <v>614</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>593</v>
+      </c>
+      <c r="B98" t="s">
+        <v>615</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>594</v>
+      </c>
+      <c r="B99" t="s">
+        <v>616</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>595</v>
+      </c>
+      <c r="B100" t="s">
+        <v>369</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>596</v>
+      </c>
+      <c r="B101" t="s">
+        <v>617</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>597</v>
+      </c>
+      <c r="B102" t="s">
+        <v>618</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>49</v>
+      </c>
+      <c r="B103" t="s">
+        <v>619</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>279</v>
+      </c>
+      <c r="B104" t="s">
+        <v>196</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>598</v>
+      </c>
+      <c r="B105" t="s">
+        <v>620</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>217</v>
+      </c>
+      <c r="B106" t="s">
+        <v>621</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>599</v>
+      </c>
+      <c r="B107" t="s">
+        <v>622</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" t="s">
+        <v>623</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" t="s">
+        <v>624</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>600</v>
+      </c>
+      <c r="B110" t="s">
+        <v>625</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>601</v>
+      </c>
+      <c r="B111" t="s">
+        <v>626</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>602</v>
+      </c>
+      <c r="B112" t="s">
+        <v>627</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>603</v>
+      </c>
+      <c r="B113" t="s">
+        <v>628</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" t="s">
+        <v>629</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>660</v>
+      </c>
+      <c r="B115" t="s">
+        <v>685</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>661</v>
+      </c>
+      <c r="B116" t="s">
+        <v>686</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>662</v>
+      </c>
+      <c r="B117" t="s">
+        <v>687</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>663</v>
+      </c>
+      <c r="B118" t="s">
+        <v>688</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>664</v>
+      </c>
+      <c r="B119" t="s">
+        <v>689</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>665</v>
+      </c>
+      <c r="B120" t="s">
+        <v>690</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>666</v>
+      </c>
+      <c r="B121" t="s">
+        <v>691</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>667</v>
+      </c>
+      <c r="B122" t="s">
+        <v>692</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>668</v>
+      </c>
+      <c r="B123" t="s">
+        <v>693</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>669</v>
+      </c>
+      <c r="B124" t="s">
+        <v>694</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>670</v>
+      </c>
+      <c r="B125" t="s">
+        <v>695</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>671</v>
+      </c>
+      <c r="B126" t="s">
+        <v>696</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" t="s">
+        <v>697</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>672</v>
+      </c>
+      <c r="B128" t="s">
+        <v>698</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>673</v>
+      </c>
+      <c r="B129" t="s">
+        <v>699</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>674</v>
+      </c>
+      <c r="B130" t="s">
+        <v>700</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>675</v>
+      </c>
+      <c r="B131" t="s">
+        <v>701</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>676</v>
+      </c>
+      <c r="B132" t="s">
+        <v>702</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>305</v>
+      </c>
+      <c r="B133" t="s">
+        <v>703</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>677</v>
+      </c>
+      <c r="B134" t="s">
+        <v>704</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>678</v>
+      </c>
+      <c r="B135" t="s">
+        <v>705</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>27</v>
+      </c>
+      <c r="B136" t="s">
+        <v>706</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>679</v>
+      </c>
+      <c r="B137" t="s">
+        <v>707</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>680</v>
+      </c>
+      <c r="B138" t="s">
+        <v>708</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>681</v>
+      </c>
+      <c r="B139" t="s">
+        <v>709</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>682</v>
+      </c>
+      <c r="B140" t="s">
+        <v>710</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>683</v>
+      </c>
+      <c r="B141" t="s">
+        <v>711</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>684</v>
+      </c>
+      <c r="B142" t="s">
+        <v>712</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>28</v>
+      </c>
+      <c r="B143" t="s">
+        <v>713</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>743</v>
+      </c>
+      <c r="B144" t="s">
+        <v>760</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>744</v>
+      </c>
+      <c r="B145" t="s">
+        <v>761</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>745</v>
+      </c>
+      <c r="B146" t="s">
+        <v>762</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>746</v>
+      </c>
+      <c r="B147" t="s">
+        <v>763</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>115</v>
+      </c>
+      <c r="B148" t="s">
+        <v>764</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>211</v>
+      </c>
+      <c r="B149" t="s">
+        <v>145</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>252</v>
+      </c>
+      <c r="B150" t="s">
+        <v>765</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>22</v>
+      </c>
+      <c r="B151" t="s">
+        <v>766</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>747</v>
+      </c>
+      <c r="B152" t="s">
+        <v>767</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>25</v>
+      </c>
+      <c r="B153" t="s">
+        <v>768</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>21</v>
+      </c>
+      <c r="B154" t="s">
+        <v>769</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>26</v>
+      </c>
+      <c r="B155" t="s">
+        <v>770</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>23</v>
+      </c>
+      <c r="B156" t="s">
+        <v>771</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>748</v>
+      </c>
+      <c r="B157" t="s">
+        <v>772</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>749</v>
+      </c>
+      <c r="B158" t="s">
+        <v>773</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>166</v>
+      </c>
+      <c r="B159" t="s">
+        <v>774</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>750</v>
+      </c>
+      <c r="B160" t="s">
+        <v>775</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>751</v>
+      </c>
+      <c r="B161" t="s">
+        <v>776</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>106</v>
+      </c>
+      <c r="B162" t="s">
+        <v>777</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>35</v>
+      </c>
+      <c r="B163" t="s">
+        <v>778</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>752</v>
+      </c>
+      <c r="B164" t="s">
+        <v>779</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>302</v>
+      </c>
+      <c r="B165" t="s">
+        <v>197</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>29</v>
+      </c>
+      <c r="B166" t="s">
+        <v>780</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>753</v>
+      </c>
+      <c r="B167" t="s">
+        <v>781</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>117</v>
+      </c>
+      <c r="B168" t="s">
+        <v>782</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>754</v>
+      </c>
+      <c r="B169" t="s">
+        <v>783</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>755</v>
+      </c>
+      <c r="B170" t="s">
+        <v>784</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>756</v>
+      </c>
+      <c r="B171" t="s">
+        <v>785</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>757</v>
+      </c>
+      <c r="B172" t="s">
+        <v>786</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>759</v>
+      </c>
+      <c r="B173" t="s">
+        <v>787</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>818</v>
+      </c>
+      <c r="B174" t="s">
+        <v>837</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>819</v>
+      </c>
+      <c r="B175" t="s">
+        <v>838</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>40</v>
+      </c>
+      <c r="B176" t="s">
+        <v>200</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>820</v>
+      </c>
+      <c r="B177" t="s">
+        <v>839</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>821</v>
+      </c>
+      <c r="B178" t="s">
+        <v>367</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>107</v>
+      </c>
+      <c r="B179" t="s">
+        <v>362</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>822</v>
+      </c>
+      <c r="B180" t="s">
+        <v>840</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>823</v>
+      </c>
+      <c r="B181" t="s">
+        <v>841</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>758</v>
+      </c>
+      <c r="B182" t="s">
+        <v>842</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>824</v>
+      </c>
+      <c r="B183" t="s">
+        <v>843</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>41</v>
+      </c>
+      <c r="B184" t="s">
+        <v>844</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>825</v>
+      </c>
+      <c r="B185" t="s">
+        <v>845</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>221</v>
+      </c>
+      <c r="B186" t="s">
+        <v>846</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>826</v>
+      </c>
+      <c r="B187" t="s">
+        <v>847</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>827</v>
+      </c>
+      <c r="B188" t="s">
+        <v>848</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>828</v>
+      </c>
+      <c r="B189" t="s">
+        <v>849</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>829</v>
+      </c>
+      <c r="B190" t="s">
+        <v>850</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>830</v>
+      </c>
+      <c r="B191" t="s">
+        <v>851</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>831</v>
+      </c>
+      <c r="B192" t="s">
+        <v>852</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>832</v>
+      </c>
+      <c r="B193" t="s">
+        <v>853</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>833</v>
+      </c>
+      <c r="B194" t="s">
+        <v>854</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>834</v>
+      </c>
+      <c r="B195" t="s">
+        <v>855</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>835</v>
+      </c>
+      <c r="B196" t="s">
+        <v>856</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>836</v>
+      </c>
+      <c r="B197" t="s">
+        <v>857</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>222</v>
+      </c>
+      <c r="B198" t="s">
+        <v>895</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>882</v>
+      </c>
+      <c r="B199" t="s">
+        <v>896</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>169</v>
+      </c>
+      <c r="B200" t="s">
+        <v>897</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>883</v>
+      </c>
+      <c r="B201" t="s">
+        <v>898</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>884</v>
+      </c>
+      <c r="B202" t="s">
+        <v>899</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>43</v>
+      </c>
+      <c r="B203" t="s">
+        <v>900</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>188</v>
+      </c>
+      <c r="B204" t="s">
+        <v>901</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>885</v>
+      </c>
+      <c r="B205" t="s">
+        <v>902</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>886</v>
+      </c>
+      <c r="B206" t="s">
+        <v>903</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>113</v>
+      </c>
+      <c r="B207" t="s">
+        <v>904</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>170</v>
+      </c>
+      <c r="B208" t="s">
+        <v>905</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>259</v>
+      </c>
+      <c r="B209" t="s">
+        <v>906</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>171</v>
+      </c>
+      <c r="B210" t="s">
+        <v>907</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>175</v>
+      </c>
+      <c r="B211" t="s">
+        <v>908</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>887</v>
+      </c>
+      <c r="B212" t="s">
+        <v>909</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>307</v>
+      </c>
+      <c r="B213" t="s">
+        <v>910</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>216</v>
+      </c>
+      <c r="B214" t="s">
+        <v>911</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>888</v>
+      </c>
+      <c r="B215" t="s">
+        <v>912</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>44</v>
+      </c>
+      <c r="B216" t="s">
+        <v>913</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>223</v>
+      </c>
+      <c r="B217" t="s">
+        <v>370</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>283</v>
+      </c>
+      <c r="B218" t="s">
+        <v>914</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>889</v>
+      </c>
+      <c r="B219" t="s">
+        <v>915</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>164</v>
+      </c>
+      <c r="B220" t="s">
+        <v>916</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>890</v>
+      </c>
+      <c r="B221" t="s">
+        <v>917</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>891</v>
+      </c>
+      <c r="B222" t="s">
+        <v>918</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>892</v>
+      </c>
+      <c r="B223" t="s">
+        <v>919</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>893</v>
+      </c>
+      <c r="B224" t="s">
+        <v>920</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>894</v>
+      </c>
+      <c r="B225" t="s">
+        <v>921</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>172</v>
+      </c>
+      <c r="B226" t="s">
+        <v>970</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>950</v>
+      </c>
+      <c r="B227" t="s">
+        <v>971</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>951</v>
+      </c>
+      <c r="B228" t="s">
+        <v>972</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>225</v>
+      </c>
+      <c r="B229" t="s">
+        <v>973</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>952</v>
+      </c>
+      <c r="B230" t="s">
+        <v>974</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>45</v>
+      </c>
+      <c r="B231" t="s">
+        <v>975</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>953</v>
+      </c>
+      <c r="B232" t="s">
+        <v>976</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>190</v>
+      </c>
+      <c r="B233" t="s">
+        <v>977</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>954</v>
+      </c>
+      <c r="B234" t="s">
+        <v>978</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>955</v>
+      </c>
+      <c r="B235" t="s">
+        <v>979</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>980</v>
+      </c>
+      <c r="B236" t="s">
+        <v>981</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>956</v>
+      </c>
+      <c r="B237" t="s">
+        <v>982</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>957</v>
+      </c>
+      <c r="B238" t="s">
+        <v>983</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>958</v>
+      </c>
+      <c r="B239" t="s">
+        <v>984</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>959</v>
+      </c>
+      <c r="B240" t="s">
+        <v>985</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>204</v>
+      </c>
+      <c r="B241" t="s">
+        <v>986</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>987</v>
+      </c>
+      <c r="B242" t="s">
+        <v>368</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>960</v>
+      </c>
+      <c r="B243" t="s">
+        <v>988</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>961</v>
+      </c>
+      <c r="B244" t="s">
+        <v>989</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>173</v>
+      </c>
+      <c r="B245" t="s">
+        <v>363</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>962</v>
+      </c>
+      <c r="B246" t="s">
+        <v>990</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>963</v>
+      </c>
+      <c r="B247" t="s">
+        <v>992</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>964</v>
+      </c>
+      <c r="B248" t="s">
+        <v>991</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>965</v>
+      </c>
+      <c r="B249" t="s">
+        <v>993</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>966</v>
+      </c>
+      <c r="B250" t="s">
+        <v>994</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>967</v>
+      </c>
+      <c r="B251" t="s">
+        <v>995</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>968</v>
+      </c>
+      <c r="B252" t="s">
+        <v>996</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>969</v>
+      </c>
+      <c r="B253" t="s">
+        <v>997</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B0892299-11BB-4098-BB01-A25694BC8BAE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4278487-98A2-4B47-A317-300A76478B2A}">
   <dimension ref="A1:D55"/>
   <sheetViews>
@@ -2985,7 +8013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B69A714-479A-4417-B7D3-ACEC9E7DD773}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -3221,7 +8249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF2F83B-4E13-402D-9F5E-9EBDC1D41811}">
   <dimension ref="A1:D36"/>
   <sheetViews>
@@ -3720,7 +8748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8F3131-F707-47FC-A3C7-2DF9B484406C}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -4079,7 +9107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B2F215-D1D1-4DB0-9C91-D096EB9C0D59}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -4382,7 +9410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBCC2B0-A1F8-4A88-B6FF-E3D77F2A9D8D}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -4739,7 +9767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790B969F-7D9E-43EB-9AC1-4F0DCBC8E9CE}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -5040,181 +10068,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603CA29D-BFEC-42C7-BB3E-D6C60B69F954}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B5" t="s">
-        <v>329</v>
-      </c>
-      <c r="C5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" t="str">
-        <f>"('"&amp;A5&amp;"', '"&amp;B5&amp;"', '"&amp;C5&amp;"', '"&amp;D5&amp;"')"</f>
-        <v>('A', 'Alajuela', 'CR', 'Costa Rica')</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>324</v>
-      </c>
-      <c r="B6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E6" t="str">
-        <f>", ('"&amp;A6&amp;"', '"&amp;B6&amp;"', '"&amp;C6&amp;"', '"&amp;D6&amp;"')"</f>
-        <v>, ('C', 'Cartago', 'CR', 'Costa Rica')</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>325</v>
-      </c>
-      <c r="B7" t="s">
-        <v>331</v>
-      </c>
-      <c r="C7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E11" si="0">", ('"&amp;A7&amp;"', '"&amp;B7&amp;"', '"&amp;C7&amp;"', '"&amp;D7&amp;"')"</f>
-        <v>, ('G', 'Guanacaste', 'CR', 'Costa Rica')</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>326</v>
-      </c>
-      <c r="B8" t="s">
-        <v>332</v>
-      </c>
-      <c r="C8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>, ('H', 'Heredia', 'CR', 'Costa Rica')</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>327</v>
-      </c>
-      <c r="B9" t="s">
-        <v>333</v>
-      </c>
-      <c r="C9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>, ('L', 'Limon', 'CR', 'Costa Rica')</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>328</v>
-      </c>
-      <c r="B10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C10" t="s">
-        <v>250</v>
-      </c>
-      <c r="D10" t="s">
-        <v>199</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>, ('P', 'Puntarenas', 'CR', 'Costa Rica')</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>283</v>
-      </c>
-      <c r="B11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D11" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>, ('SJ', 'San Jose', 'CR', 'Costa Rica')</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Jurisdiction List.xlsx
+++ b/Jurisdiction List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\GitHub\UsefulSQLScripts\usefulsqlscripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42435FBA-FFCB-4F1B-9A65-F9992553C4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6250DA-A121-4AD1-9ED1-956B4F4A945B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{791EB851-A240-4117-BBCC-C87086E7EBC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{791EB851-A240-4117-BBCC-C87086E7EBC8}"/>
   </bookViews>
   <sheets>
     <sheet name="aa - Template" sheetId="14" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="1224">
   <si>
     <t>AL</t>
   </si>
@@ -1898,9 +1898,6 @@
     <t>Guinea</t>
   </si>
   <si>
-    <t>Guina-Bissau</t>
-  </si>
-  <si>
     <t>Haiti</t>
   </si>
   <si>
@@ -3135,6 +3132,594 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_ISO_3166_country_codes</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Caribbean</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Saint Vincent - Grenadines</t>
+  </si>
+  <si>
+    <t>US Virgin Islands</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Caribbean Netherlands</t>
+  </si>
+  <si>
+    <t>Saint-Barthelemy</t>
+  </si>
+  <si>
+    <t>Saint Pierre &amp; Miquelon</t>
+  </si>
+  <si>
+    <t>Jurisdiction Name</t>
+  </si>
+  <si>
+    <t>Parish</t>
+  </si>
+  <si>
+    <t>Emirate</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Alternate Jurisdiction Name</t>
+  </si>
+  <si>
+    <t>Dependency</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Territory</t>
+  </si>
+  <si>
+    <t>Municipality</t>
+  </si>
+  <si>
+    <t>Rayon</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Alpha 3 Country Code</t>
+  </si>
+  <si>
+    <t>Alpha 2 Country Code</t>
+  </si>
+  <si>
+    <t>ABW</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>AZE</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>ATA</t>
+  </si>
+  <si>
+    <t>BRB</t>
+  </si>
+  <si>
+    <t>BHR</t>
+  </si>
+  <si>
+    <t>AIA</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>ASM</t>
+  </si>
+  <si>
+    <t>ATF</t>
+  </si>
+  <si>
+    <t>ATG</t>
+  </si>
+  <si>
+    <t>BHS</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>BRN</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>BES</t>
+  </si>
+  <si>
+    <t>BFA</t>
+  </si>
+  <si>
+    <t>BGR</t>
+  </si>
+  <si>
+    <t>BTN</t>
+  </si>
+  <si>
+    <t>BVT</t>
+  </si>
+  <si>
+    <t>BIH</t>
+  </si>
+  <si>
+    <t>BLM</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>BMU</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>FJI</t>
+  </si>
+  <si>
+    <t>GUM</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>JEY</t>
+  </si>
+  <si>
+    <t>KWT</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>MWI</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>BLZ</t>
+  </si>
+  <si>
+    <t>CCK</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>COK</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>CPV</t>
+  </si>
+  <si>
+    <t>CUW</t>
+  </si>
+  <si>
+    <t>CXR</t>
+  </si>
+  <si>
+    <t>CYP</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>DJI</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>DMA</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>DZA</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>EGY</t>
+  </si>
+  <si>
+    <t>ESH</t>
+  </si>
+  <si>
+    <t>ERI</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>FLK</t>
+  </si>
+  <si>
+    <t>FSM</t>
+  </si>
+  <si>
+    <t>FRO</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>GAB</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>GRD</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>GUF</t>
+  </si>
+  <si>
+    <t>GGY</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>GIB</t>
+  </si>
+  <si>
+    <t>GRL</t>
+  </si>
+  <si>
+    <t>GMB</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>GLP</t>
+  </si>
+  <si>
+    <t>GNQ</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>SGS</t>
+  </si>
+  <si>
+    <t>GTM</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>GNB</t>
+  </si>
+  <si>
+    <t>GUY</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>ISL</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>JOR</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>HKG</t>
+  </si>
+  <si>
+    <t>HMD</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>HRV</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>IMN</t>
+  </si>
+  <si>
+    <t>IOT</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>KGZ</t>
+  </si>
+  <si>
+    <t>KHM</t>
+  </si>
+  <si>
+    <t>KIR</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>KNA</t>
+  </si>
+  <si>
+    <t>PRK</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>CYM</t>
+  </si>
+  <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>LAO</t>
+  </si>
+  <si>
+    <t>LBN</t>
+  </si>
+  <si>
+    <t>LCA</t>
+  </si>
+  <si>
+    <t>LIE</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>LSO</t>
+  </si>
+  <si>
+    <t>LTU</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>LBY</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>MNE</t>
+  </si>
+  <si>
+    <t>MAF</t>
+  </si>
+  <si>
+    <t>MDG</t>
+  </si>
+  <si>
+    <t>MHL</t>
+  </si>
+  <si>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>MNG</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>MNP</t>
+  </si>
+  <si>
+    <t>MTQ</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
+    <t>MSR</t>
+  </si>
+  <si>
+    <t>MLT</t>
+  </si>
+  <si>
+    <t>MUS</t>
+  </si>
+  <si>
+    <t>MDV</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>MYS</t>
+  </si>
+  <si>
+    <t>MOZ</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>NCL</t>
+  </si>
+  <si>
+    <t>NER</t>
+  </si>
+  <si>
+    <t>NFK</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>NRU</t>
+  </si>
+  <si>
+    <t>NIU</t>
   </si>
 </sst>
 </file>
@@ -3193,7 +3778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3210,6 +3795,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3517,7 +4105,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4053,7 +4641,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4379,2867 +4967,3691 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D92DE2-797E-4AE0-9CC6-22AFF4FAA070}">
-  <dimension ref="A1:D253"/>
+  <dimension ref="A1:K253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="4" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>1027</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
         <v>1028</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="K3" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F4" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I5" t="s">
+        <v>418</v>
+      </c>
+      <c r="J5" t="s">
+        <v>359</v>
+      </c>
+      <c r="K5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C6" t="s">
+        <v>982</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I6" t="s">
+        <v>610</v>
+      </c>
+      <c r="J6" t="s">
+        <v>360</v>
+      </c>
+      <c r="K6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C7" t="s">
         <v>396</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F7" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J8" t="s">
+        <v>362</v>
+      </c>
+      <c r="K8" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C9" t="s">
+        <v>402</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="J9" t="s">
+        <v>363</v>
+      </c>
+      <c r="K9" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C10" t="s">
+        <v>398</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J10" t="s">
+        <v>364</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C11" t="s">
+        <v>406</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J11" t="s">
+        <v>365</v>
+      </c>
+      <c r="K11" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C12" t="s">
+        <v>403</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="J12" t="s">
+        <v>366</v>
+      </c>
+      <c r="K12" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C13" t="s">
+        <v>404</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="J13" t="s">
+        <v>367</v>
+      </c>
+      <c r="K13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C14" t="s">
+        <v>361</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="J14" t="s">
+        <v>368</v>
+      </c>
+      <c r="K14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C15" t="s">
+        <v>400</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="J15" t="s">
+        <v>369</v>
+      </c>
+      <c r="K15" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C16" t="s">
+        <v>409</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J16" t="s">
+        <v>370</v>
+      </c>
+      <c r="K16" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C18" t="s">
+        <v>407</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="J18" t="s">
+        <v>372</v>
+      </c>
+      <c r="K18" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B19" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C19" t="s">
         <v>397</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="K19" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C20" t="s">
+        <v>410</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K20" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C21" t="s">
+        <v>467</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="K21" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C22" t="s">
+        <v>414</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K22" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C23" t="s">
+        <v>413</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="K23" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C24" t="s">
+        <v>416</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K24" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C25" t="s">
+        <v>473</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K25" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C26" t="s">
+        <v>472</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K26" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C27" t="s">
+        <v>412</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="K27" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C28" t="s">
+        <v>474</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C29" t="s">
+        <v>417</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C30" t="s">
+        <v>849</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="K30" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C31" t="s">
+        <v>418</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="K31" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C32" t="s">
+        <v>471</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C33" t="s">
+        <v>366</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C34" t="s">
+        <v>466</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C35" t="s">
+        <v>359</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C36" t="s">
+        <v>411</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C37" t="s">
+        <v>419</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C38" t="s">
+        <v>469</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C39" t="s">
+        <v>468</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C40" t="s">
+        <v>415</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C42" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C43" t="s">
+        <v>483</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C44" t="s">
+        <v>486</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C45" t="s">
+        <v>479</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C46" t="s">
+        <v>485</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C47" t="s">
+        <v>915</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>536</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C49" t="s">
+        <v>535</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C50" t="s">
+        <v>364</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C51" t="s">
+        <v>477</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C52" t="s">
+        <v>481</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C53" t="s">
+        <v>360</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C55" t="s">
+        <v>538</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C56" t="s">
+        <v>475</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C57" t="s">
+        <v>539</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C58" t="s">
+        <v>482</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C59" t="s">
+        <v>540</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C60" t="s">
+        <v>541</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C61" t="s">
+        <v>606</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C62" t="s">
+        <v>543</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C63" t="s">
+        <v>542</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C64" t="s">
+        <v>544</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C65" t="s">
+        <v>545</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B66" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C66" t="s">
         <v>399</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>400</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>381</v>
-      </c>
-      <c r="B10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>382</v>
-      </c>
-      <c r="B11" t="s">
-        <v>403</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>383</v>
-      </c>
-      <c r="B12" t="s">
-        <v>402</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>384</v>
-      </c>
-      <c r="B13" t="s">
-        <v>404</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" t="s">
-        <v>405</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>361</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>385</v>
-      </c>
-      <c r="B16" t="s">
-        <v>406</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>386</v>
-      </c>
-      <c r="B17" t="s">
-        <v>407</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>387</v>
-      </c>
-      <c r="B18" t="s">
-        <v>408</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>248</v>
-      </c>
-      <c r="B19" t="s">
-        <v>409</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>410</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>177</v>
-      </c>
-      <c r="B21" t="s">
-        <v>411</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>388</v>
-      </c>
-      <c r="B22" t="s">
-        <v>412</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>389</v>
-      </c>
-      <c r="B23" t="s">
-        <v>413</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>390</v>
-      </c>
-      <c r="B24" t="s">
-        <v>414</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>391</v>
-      </c>
-      <c r="B25" t="s">
-        <v>415</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B26" t="s">
-        <v>416</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>349</v>
-      </c>
-      <c r="B27" t="s">
-        <v>201</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>393</v>
-      </c>
-      <c r="B28" t="s">
-        <v>417</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>394</v>
-      </c>
-      <c r="B29" t="s">
-        <v>418</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>395</v>
-      </c>
-      <c r="B30" t="s">
-        <v>419</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>280</v>
-      </c>
-      <c r="B31" t="s">
-        <v>366</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>447</v>
-      </c>
-      <c r="B32" t="s">
-        <v>466</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>448</v>
-      </c>
-      <c r="B33" t="s">
-        <v>467</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>449</v>
-      </c>
-      <c r="B34" t="s">
-        <v>468</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>214</v>
-      </c>
-      <c r="B35" t="s">
-        <v>469</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>450</v>
-      </c>
-      <c r="B36" t="s">
-        <v>359</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C67" t="s">
+        <v>365</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C68" t="s">
+        <v>549</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C69" t="s">
+        <v>546</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C70" t="s">
+        <v>993</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C71" t="s">
+        <v>548</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C72" t="s">
+        <v>910</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C73" t="s">
+        <v>551</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C74" t="s">
+        <v>554</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C75" t="s">
+        <v>553</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C76" t="s">
+        <v>372</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C77" t="s">
+        <v>764</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C78" t="s">
+        <v>552</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C79" t="s">
+        <v>555</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C80" t="s">
+        <v>604</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C81" t="s">
+        <v>983</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C82" t="s">
+        <v>611</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C83" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C84" t="s">
+        <v>371</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C85" t="s">
+        <v>614</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C86" t="s">
+        <v>607</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C87" t="s">
+        <v>608</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C88" t="s">
+        <v>610</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C89" t="s">
+        <v>605</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C90" t="s">
+        <v>615</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C91" t="s">
+        <v>612</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C92" t="s">
+        <v>547</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C93" t="s">
+        <v>609</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C94" t="s">
+        <v>908</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C95" t="s">
+        <v>195</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C96" t="s">
+        <v>613</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C98" t="s">
+        <v>369</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C99" t="s">
+        <v>619</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C100" t="s">
+        <v>617</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C101" t="s">
+        <v>196</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C102" t="s">
+        <v>537</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C103" t="s">
+        <v>616</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C104" t="s">
+        <v>620</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C105" t="s">
+        <v>623</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C106" t="s">
+        <v>626</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C107" t="s">
+        <v>628</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C108" t="s">
+        <v>627</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C109" t="s">
+        <v>622</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B110" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C110" t="s">
         <v>470</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D110" s="6" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>452</v>
-      </c>
-      <c r="B38" t="s">
-        <v>471</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>453</v>
-      </c>
-      <c r="B39" t="s">
-        <v>472</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>454</v>
-      </c>
-      <c r="B40" t="s">
-        <v>473</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>455</v>
-      </c>
-      <c r="B41" t="s">
-        <v>474</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>456</v>
-      </c>
-      <c r="B42" t="s">
-        <v>475</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C111" t="s">
+        <v>625</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C112" t="s">
+        <v>624</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C113" t="s">
+        <v>621</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C114" t="s">
+        <v>684</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C115" t="s">
+        <v>687</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C116" t="s">
+        <v>685</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C117" t="s">
+        <v>688</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C118" t="s">
+        <v>686</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C119" t="s">
+        <v>690</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C120" t="s">
+        <v>695</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B121" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C121" t="s">
         <v>476</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D121" s="6" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>178</v>
-      </c>
-      <c r="B44" t="s">
-        <v>477</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s">
-        <v>209</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C122" t="s">
+        <v>691</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C123" t="s">
+        <v>484</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C124" t="s">
+        <v>851</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C125" t="s">
+        <v>692</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C126" t="s">
+        <v>693</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C127" t="s">
+        <v>694</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B128" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C128" t="s">
         <v>478</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D128" s="6" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>458</v>
-      </c>
-      <c r="B47" t="s">
-        <v>479</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C129" t="s">
+        <v>689</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C130" t="s">
+        <v>696</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C131" t="s">
+        <v>698</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C132" t="s">
+        <v>852</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C133" t="s">
+        <v>702</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C134" t="s">
+        <v>911</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C135" t="s">
+        <v>700</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C136" t="s">
+        <v>699</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C137" t="s">
+        <v>703</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C138" t="s">
+        <v>704</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C139" t="s">
+        <v>697</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C140" t="s">
+        <v>701</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C141" t="s">
+        <v>770</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C142" t="s">
+        <v>766</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C143" t="s">
+        <v>765</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C144" t="s">
+        <v>768</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C145" t="s">
+        <v>853</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C146" t="s">
+        <v>707</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C147" t="s">
+        <v>759</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C148" t="s">
+        <v>706</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C149" t="s">
+        <v>711</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C150" t="s">
+        <v>772</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C151" t="s">
+        <v>767</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C152" t="s">
+        <v>705</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C153" t="s">
+        <v>783</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C154" t="s">
+        <v>760</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C155" t="s">
+        <v>761</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C156" t="s">
+        <v>769</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C157" t="s">
+        <v>712</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C158" t="s">
+        <v>762</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C159" t="s">
+        <v>710</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C160" t="s">
+        <v>708</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C161" t="s">
+        <v>145</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C162" t="s">
+        <v>709</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C163" t="s">
+        <v>771</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C164" t="s">
+        <v>773</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C165" t="s">
+        <v>777</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C166" t="s">
+        <v>779</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C167" t="s">
+        <v>782</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C168" t="s">
+        <v>780</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C169" t="s">
+        <v>197</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C170" t="s">
+        <v>776</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C171" t="s">
+        <v>784</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C172" t="s">
+        <v>775</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C173" t="s">
+        <v>774</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C174" t="s">
+        <v>781</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B175" s="4"/>
+      <c r="C175" t="s">
+        <v>778</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B176" s="4"/>
+      <c r="C176" t="s">
+        <v>785</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B177" s="4"/>
+      <c r="C177" t="s">
+        <v>200</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B178" s="4"/>
+      <c r="C178" t="s">
+        <v>362</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B179" s="4"/>
+      <c r="C179" t="s">
+        <v>556</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="B180" s="4"/>
+      <c r="C180" t="s">
+        <v>838</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="B181" s="4"/>
+      <c r="C181" t="s">
+        <v>839</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B182" s="4"/>
+      <c r="C182" t="s">
+        <v>786</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B183" s="4"/>
+      <c r="C183" t="s">
+        <v>841</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="B184" s="4"/>
+      <c r="C184" t="s">
+        <v>854</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B185" s="4"/>
+      <c r="C185" t="s">
+        <v>840</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B186" s="4"/>
+      <c r="C186" t="s">
+        <v>843</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B187" s="4"/>
+      <c r="C187" t="s">
+        <v>837</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="B188" s="4"/>
+      <c r="C188" t="s">
+        <v>842</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="B189" s="4"/>
+      <c r="C189" t="s">
+        <v>836</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="B190" s="4"/>
+      <c r="C190" t="s">
+        <v>367</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="B191" s="4"/>
+      <c r="C191" t="s">
+        <v>844</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B192" s="4"/>
+      <c r="C192" t="s">
+        <v>845</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="B193" s="4"/>
+      <c r="C193" t="s">
+        <v>846</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="B194" s="4"/>
+      <c r="C194" t="s">
+        <v>898</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="B195" s="4"/>
+      <c r="C195" t="s">
+        <v>847</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="B196" s="4"/>
+      <c r="C196" t="s">
+        <v>848</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B197" s="4"/>
+      <c r="C197" t="s">
+        <v>896</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B198" s="4"/>
+      <c r="C198" t="s">
+        <v>905</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B199" s="4"/>
+      <c r="C199" t="s">
+        <v>899</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B200" s="4"/>
+      <c r="C200" t="s">
+        <v>912</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="B201" s="4"/>
+      <c r="C201" t="s">
+        <v>914</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="B202" s="4"/>
+      <c r="C202" t="s">
+        <v>901</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="B203" s="4"/>
+      <c r="C203" t="s">
+        <v>850</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B204" s="4"/>
+      <c r="C204" t="s">
+        <v>904</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B205" s="4"/>
+      <c r="C205" t="s">
+        <v>913</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B206" s="4"/>
+      <c r="C206" t="s">
+        <v>903</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B207" s="4"/>
+      <c r="C207" t="s">
+        <v>900</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B208" s="4"/>
+      <c r="C208" t="s">
+        <v>894</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="B209" s="4"/>
+      <c r="C209" t="s">
+        <v>897</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B210" s="4"/>
+      <c r="C210" t="s">
+        <v>906</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B211" s="4"/>
+      <c r="C211" t="s">
+        <v>370</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B212" s="4"/>
+      <c r="C212" t="s">
+        <v>909</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="B213" s="4"/>
+      <c r="C213" t="s">
+        <v>895</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B214" s="4"/>
+      <c r="C214" t="s">
+        <v>198</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="B215" s="4"/>
+      <c r="C215" t="s">
+        <v>902</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="B216" s="4"/>
+      <c r="C216" t="s">
+        <v>916</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B217" s="4"/>
+      <c r="C217" t="s">
+        <v>550</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="B218" s="4"/>
+      <c r="C218" t="s">
+        <v>977</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B219" s="4"/>
+      <c r="C219" t="s">
         <v>480</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="D219" s="6" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>180</v>
-      </c>
-      <c r="B49" t="s">
-        <v>364</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>460</v>
-      </c>
-      <c r="B50" t="s">
-        <v>481</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>461</v>
-      </c>
-      <c r="B51" t="s">
-        <v>482</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>462</v>
-      </c>
-      <c r="B52" t="s">
-        <v>483</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" t="s">
-        <v>360</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>463</v>
-      </c>
-      <c r="B54" t="s">
-        <v>484</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>464</v>
-      </c>
-      <c r="B55" t="s">
-        <v>486</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>465</v>
-      </c>
-      <c r="B56" t="s">
-        <v>485</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>512</v>
-      </c>
-      <c r="B57" t="s">
-        <v>535</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>250</v>
-      </c>
-      <c r="B58" t="s">
-        <v>199</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>281</v>
-      </c>
-      <c r="B59" t="s">
-        <v>536</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>513</v>
-      </c>
-      <c r="B60" t="s">
-        <v>537</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>304</v>
-      </c>
-      <c r="B61" t="s">
-        <v>538</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>514</v>
-      </c>
-      <c r="B62" t="s">
-        <v>539</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>350</v>
-      </c>
-      <c r="B63" t="s">
-        <v>540</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>515</v>
-      </c>
-      <c r="B64" t="s">
-        <v>541</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>516</v>
-      </c>
-      <c r="B65" t="s">
-        <v>542</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>517</v>
-      </c>
-      <c r="B66" t="s">
-        <v>543</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>518</v>
-      </c>
-      <c r="B67" t="s">
-        <v>544</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>519</v>
-      </c>
-      <c r="B68" t="s">
-        <v>545</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>520</v>
-      </c>
-      <c r="B69" t="s">
-        <v>365</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>521</v>
-      </c>
-      <c r="B70" t="s">
-        <v>546</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>308</v>
-      </c>
-      <c r="B71" t="s">
-        <v>198</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>522</v>
-      </c>
-      <c r="B72" t="s">
-        <v>547</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>523</v>
-      </c>
-      <c r="B73" t="s">
-        <v>548</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>524</v>
-      </c>
-      <c r="B74" t="s">
-        <v>549</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>525</v>
-      </c>
-      <c r="B75" t="s">
-        <v>550</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>526</v>
-      </c>
-      <c r="B76" t="s">
-        <v>551</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>527</v>
-      </c>
-      <c r="B77" t="s">
-        <v>372</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>528</v>
-      </c>
-      <c r="B78" t="s">
-        <v>552</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>529</v>
-      </c>
-      <c r="B79" t="s">
-        <v>553</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>530</v>
-      </c>
-      <c r="B80" t="s">
-        <v>554</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>531</v>
-      </c>
-      <c r="B81" t="s">
-        <v>555</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>532</v>
-      </c>
-      <c r="B82" t="s">
-        <v>371</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>533</v>
-      </c>
-      <c r="B83" t="s">
-        <v>556</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B220" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C220" t="s">
         <v>557</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="D220" s="6" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>11</v>
-      </c>
-      <c r="B85" t="s">
-        <v>604</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>586</v>
-      </c>
-      <c r="B86" t="s">
-        <v>605</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>587</v>
-      </c>
-      <c r="B87" t="s">
-        <v>64</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" t="s">
-        <v>606</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>588</v>
-      </c>
-      <c r="B89" t="s">
-        <v>607</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>589</v>
-      </c>
-      <c r="B90" t="s">
-        <v>608</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>184</v>
-      </c>
-      <c r="B91" t="s">
-        <v>609</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>590</v>
-      </c>
-      <c r="B92" t="s">
-        <v>610</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>253</v>
-      </c>
-      <c r="B93" t="s">
-        <v>611</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>591</v>
-      </c>
-      <c r="B94" t="s">
-        <v>612</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>12</v>
-      </c>
-      <c r="B95" t="s">
-        <v>613</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>183</v>
-      </c>
-      <c r="B96" t="s">
-        <v>195</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>592</v>
-      </c>
-      <c r="B97" t="s">
-        <v>614</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>593</v>
-      </c>
-      <c r="B98" t="s">
-        <v>615</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>594</v>
-      </c>
-      <c r="B99" t="s">
-        <v>616</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>595</v>
-      </c>
-      <c r="B100" t="s">
-        <v>369</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>596</v>
-      </c>
-      <c r="B101" t="s">
-        <v>617</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>597</v>
-      </c>
-      <c r="B102" t="s">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="B221" s="4"/>
+      <c r="C221" t="s">
+        <v>970</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="B222" s="4"/>
+      <c r="C222" t="s">
+        <v>920</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="B223" s="4"/>
+      <c r="C223" t="s">
+        <v>918</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="B224" s="4"/>
+      <c r="C224" t="s">
+        <v>971</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B225" s="4"/>
+      <c r="C225" t="s">
+        <v>969</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B226" s="4"/>
+      <c r="C226" t="s">
+        <v>976</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B227" s="4"/>
+      <c r="C227" t="s">
+        <v>974</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B228" s="4"/>
+      <c r="C228" t="s">
+        <v>972</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="B229" s="4"/>
+      <c r="C229" t="s">
+        <v>975</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="B230" s="4"/>
+      <c r="C230" t="s">
+        <v>973</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="B231" s="4"/>
+      <c r="C231" t="s">
+        <v>978</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="B232" s="4"/>
+      <c r="C232" t="s">
+        <v>917</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="B233" s="4"/>
+      <c r="C233" t="s">
+        <v>919</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="B234" s="4"/>
+      <c r="C234" t="s">
+        <v>981</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="B235" s="4"/>
+      <c r="C235" t="s">
+        <v>980</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="B236" s="4"/>
+      <c r="C236" t="s">
+        <v>984</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B237" s="4"/>
+      <c r="C237" t="s">
+        <v>985</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="B238" s="4"/>
+      <c r="C238" t="s">
+        <v>368</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="B239" s="4"/>
+      <c r="C239" t="s">
+        <v>987</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B240" s="4"/>
+      <c r="C240" t="s">
         <v>618</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="D240" s="6" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>49</v>
-      </c>
-      <c r="B103" t="s">
-        <v>619</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>279</v>
-      </c>
-      <c r="B104" t="s">
-        <v>196</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>598</v>
-      </c>
-      <c r="B105" t="s">
-        <v>620</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>217</v>
-      </c>
-      <c r="B106" t="s">
-        <v>621</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>599</v>
-      </c>
-      <c r="B107" t="s">
-        <v>622</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>16</v>
-      </c>
-      <c r="B108" t="s">
-        <v>623</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>14</v>
-      </c>
-      <c r="B109" t="s">
-        <v>624</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>600</v>
-      </c>
-      <c r="B110" t="s">
-        <v>625</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>601</v>
-      </c>
-      <c r="B111" t="s">
-        <v>626</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>602</v>
-      </c>
-      <c r="B112" t="s">
-        <v>627</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>603</v>
-      </c>
-      <c r="B113" t="s">
-        <v>628</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>15</v>
-      </c>
-      <c r="B114" t="s">
-        <v>629</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>660</v>
-      </c>
-      <c r="B115" t="s">
-        <v>685</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>661</v>
-      </c>
-      <c r="B116" t="s">
-        <v>686</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>662</v>
-      </c>
-      <c r="B117" t="s">
-        <v>687</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>663</v>
-      </c>
-      <c r="B118" t="s">
-        <v>688</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>664</v>
-      </c>
-      <c r="B119" t="s">
-        <v>689</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>665</v>
-      </c>
-      <c r="B120" t="s">
-        <v>690</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>666</v>
-      </c>
-      <c r="B121" t="s">
-        <v>691</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>667</v>
-      </c>
-      <c r="B122" t="s">
-        <v>692</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>668</v>
-      </c>
-      <c r="B123" t="s">
-        <v>693</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>669</v>
-      </c>
-      <c r="B124" t="s">
-        <v>694</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>670</v>
-      </c>
-      <c r="B125" t="s">
-        <v>695</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>671</v>
-      </c>
-      <c r="B126" t="s">
-        <v>696</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>20</v>
-      </c>
-      <c r="B127" t="s">
-        <v>697</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>672</v>
-      </c>
-      <c r="B128" t="s">
-        <v>698</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>673</v>
-      </c>
-      <c r="B129" t="s">
-        <v>699</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>674</v>
-      </c>
-      <c r="B130" t="s">
-        <v>700</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>675</v>
-      </c>
-      <c r="B131" t="s">
-        <v>701</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>676</v>
-      </c>
-      <c r="B132" t="s">
-        <v>702</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>305</v>
-      </c>
-      <c r="B133" t="s">
-        <v>703</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>677</v>
-      </c>
-      <c r="B134" t="s">
-        <v>704</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>678</v>
-      </c>
-      <c r="B135" t="s">
-        <v>705</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>27</v>
-      </c>
-      <c r="B136" t="s">
-        <v>706</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>679</v>
-      </c>
-      <c r="B137" t="s">
-        <v>707</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>680</v>
-      </c>
-      <c r="B138" t="s">
-        <v>708</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>681</v>
-      </c>
-      <c r="B139" t="s">
-        <v>709</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>682</v>
-      </c>
-      <c r="B140" t="s">
-        <v>710</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>683</v>
-      </c>
-      <c r="B141" t="s">
-        <v>711</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>684</v>
-      </c>
-      <c r="B142" t="s">
-        <v>712</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>28</v>
-      </c>
-      <c r="B143" t="s">
-        <v>713</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>743</v>
-      </c>
-      <c r="B144" t="s">
-        <v>760</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>744</v>
-      </c>
-      <c r="B145" t="s">
-        <v>761</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>745</v>
-      </c>
-      <c r="B146" t="s">
-        <v>762</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>746</v>
-      </c>
-      <c r="B147" t="s">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="B241" s="4"/>
+      <c r="C241" t="s">
+        <v>855</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B242" s="4"/>
+      <c r="C242" t="s">
+        <v>363</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="B243" s="4"/>
+      <c r="C243" t="s">
+        <v>991</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="B244" s="4"/>
+      <c r="C244" t="s">
+        <v>990</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="B245" s="4"/>
+      <c r="C245" t="s">
+        <v>989</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="B246" s="4"/>
+      <c r="C246" t="s">
+        <v>988</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="B247" s="4"/>
+      <c r="C247" t="s">
+        <v>992</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="B248" s="4"/>
+      <c r="C248" t="s">
+        <v>856</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="B249" s="4"/>
+      <c r="C249" t="s">
+        <v>994</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B250" s="4"/>
+      <c r="C250" t="s">
         <v>763</v>
       </c>
-      <c r="C147" s="6" t="s">
+      <c r="D250" s="6" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>115</v>
-      </c>
-      <c r="B148" t="s">
-        <v>764</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>211</v>
-      </c>
-      <c r="B149" t="s">
-        <v>145</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>252</v>
-      </c>
-      <c r="B150" t="s">
-        <v>765</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>22</v>
-      </c>
-      <c r="B151" t="s">
-        <v>766</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>747</v>
-      </c>
-      <c r="B152" t="s">
-        <v>767</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>25</v>
-      </c>
-      <c r="B153" t="s">
-        <v>768</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>21</v>
-      </c>
-      <c r="B154" t="s">
-        <v>769</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>26</v>
-      </c>
-      <c r="B155" t="s">
-        <v>770</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>23</v>
-      </c>
-      <c r="B156" t="s">
-        <v>771</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>748</v>
-      </c>
-      <c r="B157" t="s">
-        <v>772</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>749</v>
-      </c>
-      <c r="B158" t="s">
-        <v>773</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>166</v>
-      </c>
-      <c r="B159" t="s">
-        <v>774</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>750</v>
-      </c>
-      <c r="B160" t="s">
-        <v>775</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>751</v>
-      </c>
-      <c r="B161" t="s">
-        <v>776</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>106</v>
-      </c>
-      <c r="B162" t="s">
-        <v>777</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>35</v>
-      </c>
-      <c r="B163" t="s">
-        <v>778</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>752</v>
-      </c>
-      <c r="B164" t="s">
-        <v>779</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>302</v>
-      </c>
-      <c r="B165" t="s">
-        <v>197</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>29</v>
-      </c>
-      <c r="B166" t="s">
-        <v>780</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>753</v>
-      </c>
-      <c r="B167" t="s">
-        <v>781</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>117</v>
-      </c>
-      <c r="B168" t="s">
-        <v>782</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>754</v>
-      </c>
-      <c r="B169" t="s">
-        <v>783</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>755</v>
-      </c>
-      <c r="B170" t="s">
-        <v>784</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>756</v>
-      </c>
-      <c r="B171" t="s">
-        <v>785</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>757</v>
-      </c>
-      <c r="B172" t="s">
-        <v>786</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>759</v>
-      </c>
-      <c r="B173" t="s">
-        <v>787</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>818</v>
-      </c>
-      <c r="B174" t="s">
-        <v>837</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>819</v>
-      </c>
-      <c r="B175" t="s">
-        <v>838</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>40</v>
-      </c>
-      <c r="B176" t="s">
-        <v>200</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>820</v>
-      </c>
-      <c r="B177" t="s">
-        <v>839</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>821</v>
-      </c>
-      <c r="B178" t="s">
-        <v>367</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>107</v>
-      </c>
-      <c r="B179" t="s">
-        <v>362</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>822</v>
-      </c>
-      <c r="B180" t="s">
-        <v>840</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>823</v>
-      </c>
-      <c r="B181" t="s">
-        <v>841</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>758</v>
-      </c>
-      <c r="B182" t="s">
-        <v>842</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>866</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>824</v>
-      </c>
-      <c r="B183" t="s">
-        <v>843</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>867</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>41</v>
-      </c>
-      <c r="B184" t="s">
-        <v>844</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>825</v>
-      </c>
-      <c r="B185" t="s">
-        <v>845</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>221</v>
-      </c>
-      <c r="B186" t="s">
-        <v>846</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>826</v>
-      </c>
-      <c r="B187" t="s">
-        <v>847</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>871</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>827</v>
-      </c>
-      <c r="B188" t="s">
-        <v>848</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>828</v>
-      </c>
-      <c r="B189" t="s">
-        <v>849</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>829</v>
-      </c>
-      <c r="B190" t="s">
-        <v>850</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>830</v>
-      </c>
-      <c r="B191" t="s">
-        <v>851</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>831</v>
-      </c>
-      <c r="B192" t="s">
-        <v>852</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>832</v>
-      </c>
-      <c r="B193" t="s">
-        <v>853</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>833</v>
-      </c>
-      <c r="B194" t="s">
-        <v>854</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>834</v>
-      </c>
-      <c r="B195" t="s">
-        <v>855</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>835</v>
-      </c>
-      <c r="B196" t="s">
-        <v>856</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>836</v>
-      </c>
-      <c r="B197" t="s">
-        <v>857</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>222</v>
-      </c>
-      <c r="B198" t="s">
-        <v>895</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>882</v>
-      </c>
-      <c r="B199" t="s">
-        <v>896</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>169</v>
-      </c>
-      <c r="B200" t="s">
-        <v>897</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>883</v>
-      </c>
-      <c r="B201" t="s">
-        <v>898</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>884</v>
-      </c>
-      <c r="B202" t="s">
-        <v>899</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>43</v>
-      </c>
-      <c r="B203" t="s">
-        <v>900</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>188</v>
-      </c>
-      <c r="B204" t="s">
-        <v>901</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>885</v>
-      </c>
-      <c r="B205" t="s">
-        <v>902</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>886</v>
-      </c>
-      <c r="B206" t="s">
-        <v>903</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>113</v>
-      </c>
-      <c r="B207" t="s">
-        <v>904</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>931</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>170</v>
-      </c>
-      <c r="B208" t="s">
-        <v>905</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>932</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>259</v>
-      </c>
-      <c r="B209" t="s">
-        <v>906</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>171</v>
-      </c>
-      <c r="B210" t="s">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B251" s="4"/>
+      <c r="C251" t="s">
         <v>907</v>
       </c>
-      <c r="C210" s="6" t="s">
+      <c r="D251" s="6" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>175</v>
-      </c>
-      <c r="B211" t="s">
-        <v>908</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>887</v>
-      </c>
-      <c r="B212" t="s">
-        <v>909</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>307</v>
-      </c>
-      <c r="B213" t="s">
-        <v>910</v>
-      </c>
-      <c r="C213" s="6" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>216</v>
-      </c>
-      <c r="B214" t="s">
-        <v>911</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>938</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>888</v>
-      </c>
-      <c r="B215" t="s">
-        <v>912</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>44</v>
-      </c>
-      <c r="B216" t="s">
-        <v>913</v>
-      </c>
-      <c r="C216" s="6" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>223</v>
-      </c>
-      <c r="B217" t="s">
-        <v>370</v>
-      </c>
-      <c r="C217" s="6" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>283</v>
-      </c>
-      <c r="B218" t="s">
-        <v>914</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>889</v>
-      </c>
-      <c r="B219" t="s">
-        <v>915</v>
-      </c>
-      <c r="C219" s="6" t="s">
-        <v>943</v>
-      </c>
-      <c r="D219" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>164</v>
-      </c>
-      <c r="B220" t="s">
-        <v>916</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>890</v>
-      </c>
-      <c r="B221" t="s">
-        <v>917</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>891</v>
-      </c>
-      <c r="B222" t="s">
-        <v>918</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>892</v>
-      </c>
-      <c r="B223" t="s">
-        <v>919</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>893</v>
-      </c>
-      <c r="B224" t="s">
-        <v>920</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>894</v>
-      </c>
-      <c r="B225" t="s">
-        <v>921</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>172</v>
-      </c>
-      <c r="B226" t="s">
-        <v>970</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>950</v>
-      </c>
-      <c r="B227" t="s">
-        <v>971</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>951</v>
-      </c>
-      <c r="B228" t="s">
-        <v>972</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>225</v>
-      </c>
-      <c r="B229" t="s">
-        <v>973</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>952</v>
-      </c>
-      <c r="B230" t="s">
-        <v>974</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>45</v>
-      </c>
-      <c r="B231" t="s">
-        <v>975</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>953</v>
-      </c>
-      <c r="B232" t="s">
-        <v>976</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>190</v>
-      </c>
-      <c r="B233" t="s">
-        <v>977</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>954</v>
-      </c>
-      <c r="B234" t="s">
-        <v>978</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>955</v>
-      </c>
-      <c r="B235" t="s">
-        <v>979</v>
-      </c>
-      <c r="C235" s="6" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>980</v>
-      </c>
-      <c r="B236" t="s">
-        <v>981</v>
-      </c>
-      <c r="C236" s="6" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>956</v>
-      </c>
-      <c r="B237" t="s">
-        <v>982</v>
-      </c>
-      <c r="C237" s="6" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>957</v>
-      </c>
-      <c r="B238" t="s">
-        <v>983</v>
-      </c>
-      <c r="C238" s="6" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>958</v>
-      </c>
-      <c r="B239" t="s">
-        <v>984</v>
-      </c>
-      <c r="C239" s="6" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>959</v>
-      </c>
-      <c r="B240" t="s">
-        <v>985</v>
-      </c>
-      <c r="C240" s="6" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>204</v>
-      </c>
-      <c r="B241" t="s">
-        <v>986</v>
-      </c>
-      <c r="C241" s="6" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>987</v>
-      </c>
-      <c r="B242" t="s">
-        <v>368</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>960</v>
-      </c>
-      <c r="B243" t="s">
-        <v>988</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>961</v>
-      </c>
-      <c r="B244" t="s">
-        <v>989</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>173</v>
-      </c>
-      <c r="B245" t="s">
-        <v>363</v>
-      </c>
-      <c r="C245" s="6" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>962</v>
-      </c>
-      <c r="B246" t="s">
-        <v>990</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>963</v>
-      </c>
-      <c r="B247" t="s">
-        <v>992</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>964</v>
-      </c>
-      <c r="B248" t="s">
-        <v>991</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>965</v>
-      </c>
-      <c r="B249" t="s">
-        <v>993</v>
-      </c>
-      <c r="C249" s="6" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>966</v>
-      </c>
-      <c r="B250" t="s">
-        <v>994</v>
-      </c>
-      <c r="C250" s="6" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
         <v>967</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B252" s="4"/>
+      <c r="C252" t="s">
         <v>995</v>
       </c>
-      <c r="C251" s="6" t="s">
+      <c r="D252" s="6" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="s">
         <v>968</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B253" s="4"/>
+      <c r="C253" t="s">
         <v>996</v>
       </c>
-      <c r="C252" s="6" t="s">
+      <c r="D253" s="6" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>969</v>
-      </c>
-      <c r="B253" t="s">
-        <v>997</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>1025</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:F253">
+    <sortCondition ref="A5:A253"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{B0892299-11BB-4098-BB01-A25694BC8BAE}"/>
   </hyperlinks>
